--- a/biology/Médecine/Nerf_scrotal_postérieur/Nerf_scrotal_postérieur.xlsx
+++ b/biology/Médecine/Nerf_scrotal_postérieur/Nerf_scrotal_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_scrotal_post%C3%A9rieur</t>
+          <t>Nerf_scrotal_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs scrotaux postérieurs sont des nerfs sensitifs qui font partie des nerfs périnéaux chez l'homme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_scrotal_post%C3%A9rieur</t>
+          <t>Nerf_scrotal_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs scrotaux postérieurs sont les ramifications du rameau superficiel périnéal.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_scrotal_post%C3%A9rieur</t>
+          <t>Nerf_scrotal_postérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau superficiel périnéal se ramifie après sa sortie du canal pudendal. Ils traversent l'aponévrose du diaphragme urogénital et se répartissent dans la peau du scrotum.
 Ils sont accompagnés des branches scrotales de l'artère périnéale.
